--- a/output/chandigarh_karnal/initial_evci_analysis.xlsx
+++ b/output/chandigarh_karnal/initial_evci_analysis.xlsx
@@ -533,25 +533,25 @@
         <v>7350</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1423338655638757</v>
+        <v>1.472901880180053e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008019993365456203</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1862000</v>
       </c>
       <c r="L2" t="n">
-        <v>4139259.590500368</v>
+        <v>2310044.620383076</v>
       </c>
       <c r="M2" t="n">
-        <v>1272939.388575055</v>
+        <v>781206.9930574615</v>
       </c>
       <c r="N2" t="n">
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -582,25 +582,25 @@
         <v>7350</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1145565149694244</v>
+        <v>3.521129923359061e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004307793055081432</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1862000</v>
       </c>
       <c r="L3" t="n">
-        <v>3992834.804243403</v>
+        <v>2310000.106669812</v>
       </c>
       <c r="M3" t="n">
-        <v>1250975.670636511</v>
+        <v>781200.3160004718</v>
       </c>
       <c r="N3" t="n">
         <v>25</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -631,7 +631,7 @@
         <v>7350</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0176656483287962</v>
+        <v>8.873398508567271e-12</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>1862000</v>
       </c>
       <c r="L4" t="n">
-        <v>3543495.937494696</v>
+        <v>2310000.000026881</v>
       </c>
       <c r="M4" t="n">
-        <v>1183574.840624205</v>
+        <v>781200.3000040322</v>
       </c>
       <c r="N4" t="n">
         <v>25</v>
@@ -680,7 +680,7 @@
         <v>7350</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01015503386374076</v>
+        <v>3.495913571549659e-12</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>1862000</v>
       </c>
       <c r="L5" t="n">
-        <v>3510123.104942904</v>
+        <v>2310000.000010591</v>
       </c>
       <c r="M5" t="n">
-        <v>1178568.915741436</v>
+        <v>781200.3000015887</v>
       </c>
       <c r="N5" t="n">
         <v>25</v>
@@ -729,7 +729,7 @@
         <v>7350</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0126777597766809</v>
+        <v>3.73610037275381e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>1862000</v>
       </c>
       <c r="L6" t="n">
-        <v>3521332.641773523</v>
+        <v>2310000.000011318</v>
       </c>
       <c r="M6" t="n">
-        <v>1180250.346266029</v>
+        <v>781200.3000016977</v>
       </c>
       <c r="N6" t="n">
         <v>25</v>
@@ -778,7 +778,7 @@
         <v>7350</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01782135407318049</v>
+        <v>4.139363907267092e-11</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>1862000</v>
       </c>
       <c r="L7" t="n">
-        <v>3544187.803887101</v>
+        <v>2310000.000125399</v>
       </c>
       <c r="M7" t="n">
-        <v>1183678.620583065</v>
+        <v>781200.3000188099</v>
       </c>
       <c r="N7" t="n">
         <v>25</v>
@@ -827,7 +827,7 @@
         <v>7350</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02796476174826674</v>
+        <v>1.258941991474983e-11</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>1862000</v>
       </c>
       <c r="L8" t="n">
-        <v>3589259.248762912</v>
+        <v>2310000.000038139</v>
       </c>
       <c r="M8" t="n">
-        <v>1190439.337314437</v>
+        <v>781200.3000057208</v>
       </c>
       <c r="N8" t="n">
         <v>25</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -876,7 +876,7 @@
         <v>7350</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07970678503669437</v>
+        <v>1.068475511975855e-09</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -885,16 +885,16 @@
         <v>1862000</v>
       </c>
       <c r="L9" t="n">
-        <v>3819170.914064033</v>
+        <v>2310000.003236861</v>
       </c>
       <c r="M9" t="n">
-        <v>1224926.087109605</v>
+        <v>781200.3004855292</v>
       </c>
       <c r="N9" t="n">
         <v>25</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         <v>3750</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04583374368792626</v>
+        <v>1.71443762953055e-09</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>1862000</v>
       </c>
       <c r="L10" t="n">
-        <v>3668658.683378791</v>
+        <v>2310000.005193751</v>
       </c>
       <c r="M10" t="n">
-        <v>1191549.252506819</v>
+        <v>774000.3007790628</v>
       </c>
       <c r="N10" t="n">
         <v>25</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -974,7 +974,7 @@
         <v>3750</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0724826567031978</v>
+        <v>3.444280359370055e-05</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>1862000</v>
       </c>
       <c r="L11" t="n">
-        <v>3787071.0604065</v>
+        <v>2310104.341715579</v>
       </c>
       <c r="M11" t="n">
-        <v>1209311.109060975</v>
+        <v>774015.9512573369</v>
       </c>
       <c r="N11" t="n">
         <v>25</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1023,7 +1023,7 @@
         <v>3750</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005196084027656385</v>
+        <v>3.955458779647367e-07</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>1862000</v>
       </c>
       <c r="L12" t="n">
-        <v>3488088.396160771</v>
+        <v>2310001.198274565</v>
       </c>
       <c r="M12" t="n">
-        <v>1164463.709424116</v>
+        <v>774000.4797411849</v>
       </c>
       <c r="N12" t="n">
         <v>25</v>
@@ -1072,7 +1072,7 @@
         <v>3750</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004440492773732443</v>
+        <v>3.094295636064404e-07</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>1862000</v>
       </c>
       <c r="L13" t="n">
-        <v>3484730.985057841</v>
+        <v>2310000.937392086</v>
       </c>
       <c r="M13" t="n">
-        <v>1163960.097758676</v>
+        <v>774000.440608813</v>
       </c>
       <c r="N13" t="n">
         <v>25</v>
@@ -1121,7 +1121,7 @@
         <v>3750</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01739083820621723</v>
+        <v>1.332801156182824e-06</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>1862000</v>
       </c>
       <c r="L14" t="n">
-        <v>3542274.840040281</v>
+        <v>2310004.037614382</v>
       </c>
       <c r="M14" t="n">
-        <v>1172591.676006042</v>
+        <v>774000.9056421574</v>
       </c>
       <c r="N14" t="n">
         <v>25</v>
@@ -1170,7 +1170,7 @@
         <v>3750</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06959248936431789</v>
+        <v>3.067107232723043e-08</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>1862000</v>
       </c>
       <c r="L15" t="n">
-        <v>3774228.826113172</v>
+        <v>2310000.092915558</v>
       </c>
       <c r="M15" t="n">
-        <v>1207384.773916976</v>
+        <v>774000.3139373338</v>
       </c>
       <c r="N15" t="n">
         <v>25</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1219,7 +1219,7 @@
         <v>3750</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007434962866196303</v>
+        <v>5.519560966762086e-07</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>1862000</v>
       </c>
       <c r="L16" t="n">
-        <v>3498036.680542825</v>
+        <v>2310001.672106799</v>
       </c>
       <c r="M16" t="n">
-        <v>1165955.952081424</v>
+        <v>774000.5508160199</v>
       </c>
       <c r="N16" t="n">
         <v>25</v>
@@ -1268,7 +1268,7 @@
         <v>3750</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003171692650219101</v>
+        <v>2.222821943542933e-07</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>1862000</v>
       </c>
       <c r="L17" t="n">
-        <v>3479093.170167899</v>
+        <v>2310000.673386109</v>
       </c>
       <c r="M17" t="n">
-        <v>1163114.425525185</v>
+        <v>774000.4010079164</v>
       </c>
       <c r="N17" t="n">
         <v>25</v>
@@ -1317,7 +1317,7 @@
         <v>3750</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004435094569386727</v>
+        <v>3.43071026439136e-07</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>1862000</v>
       </c>
       <c r="L18" t="n">
-        <v>3484706.998555731</v>
+        <v>2310001.039306204</v>
       </c>
       <c r="M18" t="n">
-        <v>1163956.49978336</v>
+        <v>774000.4558959306</v>
       </c>
       <c r="N18" t="n">
         <v>25</v>
@@ -1366,25 +1366,25 @@
         <v>3750</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08669494274790708</v>
+        <v>9.462000143744211e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000641279360329932</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>1862000</v>
       </c>
       <c r="L19" t="n">
-        <v>3852247.604378252</v>
+        <v>2310286.643717931</v>
       </c>
       <c r="M19" t="n">
-        <v>1219087.590656738</v>
+        <v>774043.2965576897</v>
       </c>
       <c r="N19" t="n">
         <v>25</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1415,7 +1415,7 @@
         <v>3750</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02828577349178</v>
+        <v>3.599896852046942e-06</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>1862000</v>
       </c>
       <c r="L20" t="n">
-        <v>3590685.639534702</v>
+        <v>2310010.905599262</v>
       </c>
       <c r="M20" t="n">
-        <v>1179853.295930205</v>
+        <v>774001.9358398893</v>
       </c>
       <c r="N20" t="n">
         <v>25</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1464,7 +1464,7 @@
         <v>3750</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01216674272993578</v>
+        <v>2.137267004199982e-08</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>1862000</v>
       </c>
       <c r="L21" t="n">
-        <v>3519061.977181234</v>
+        <v>2310000.064746792</v>
       </c>
       <c r="M21" t="n">
-        <v>1169109.746577185</v>
+        <v>774000.3097120189</v>
       </c>
       <c r="N21" t="n">
         <v>25</v>
@@ -1513,7 +1513,7 @@
         <v>3750</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0154074345967949</v>
+        <v>2.888883804892045e-08</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>1862000</v>
       </c>
       <c r="L22" t="n">
-        <v>3533461.740013933</v>
+        <v>2310000.087516421</v>
       </c>
       <c r="M22" t="n">
-        <v>1171269.71100209</v>
+        <v>774000.3131274633</v>
       </c>
       <c r="N22" t="n">
         <v>25</v>
@@ -1562,7 +1562,7 @@
         <v>3750</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01878075263291274</v>
+        <v>6.001384480416364e-06</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1571,10 +1571,10 @@
         <v>1862000</v>
       </c>
       <c r="L23" t="n">
-        <v>3548450.816937943</v>
+        <v>2310018.18071374</v>
       </c>
       <c r="M23" t="n">
-        <v>1173518.072540692</v>
+        <v>774003.027107061</v>
       </c>
       <c r="N23" t="n">
         <v>25</v>
@@ -1611,7 +1611,7 @@
         <v>3750</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01870194836794693</v>
+        <v>5.622770430368879e-06</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>1862000</v>
       </c>
       <c r="L24" t="n">
-        <v>3548100.656301779</v>
+        <v>2310017.033732791</v>
       </c>
       <c r="M24" t="n">
-        <v>1173465.548445267</v>
+        <v>774002.8550599188</v>
       </c>
       <c r="N24" t="n">
         <v>25</v>
@@ -1660,25 +1660,25 @@
         <v>3750</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08974645789914693</v>
+        <v>0.007831950612662859</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001174189677936344</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1862000</v>
       </c>
       <c r="L25" t="n">
-        <v>3867645.298630681</v>
+        <v>2333726.267260169</v>
       </c>
       <c r="M25" t="n">
-        <v>1221397.244794603</v>
+        <v>777559.2400890253</v>
       </c>
       <c r="N25" t="n">
         <v>25</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1709,7 +1709,7 @@
         <v>3750</v>
       </c>
       <c r="I26" t="n">
-        <v>0.051913091687249</v>
+        <v>0.0001959638763234488</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>1862000</v>
       </c>
       <c r="L26" t="n">
-        <v>3695671.794456376</v>
+        <v>2310593.656872079</v>
       </c>
       <c r="M26" t="n">
-        <v>1195601.219168457</v>
+        <v>774089.3485308118</v>
       </c>
       <c r="N26" t="n">
         <v>25</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1758,7 +1758,7 @@
         <v>3750</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05227670019638658</v>
+        <v>0.001415195428913082</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>1862000</v>
       </c>
       <c r="L27" t="n">
-        <v>3697287.460650709</v>
+        <v>2314287.221234193</v>
       </c>
       <c r="M27" t="n">
-        <v>1195843.569097606</v>
+        <v>774643.383185129</v>
       </c>
       <c r="N27" t="n">
         <v>25</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1807,7 +1807,7 @@
         <v>3750</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04331861461775857</v>
+        <v>1.971543793293295e-08</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>1862000</v>
       </c>
       <c r="L28" t="n">
-        <v>3657482.902529516</v>
+        <v>2310000.059726341</v>
       </c>
       <c r="M28" t="n">
-        <v>1189872.885379428</v>
+        <v>774000.3089589512</v>
       </c>
       <c r="N28" t="n">
         <v>25</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1856,7 +1856,7 @@
         <v>3750</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03752374761685753</v>
+        <v>9.99746789398176e-10</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1865,16 +1865,16 @@
         <v>1862000</v>
       </c>
       <c r="L29" t="n">
-        <v>3631733.860692692</v>
+        <v>2310000.003028653</v>
       </c>
       <c r="M29" t="n">
-        <v>1186010.529103904</v>
+        <v>774000.3004542979</v>
       </c>
       <c r="N29" t="n">
         <v>25</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1905,7 +1905,7 @@
         <v>3750</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01943335417592934</v>
+        <v>3.908472297980035e-06</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>1862000</v>
       </c>
       <c r="L30" t="n">
-        <v>3551350.601252458</v>
+        <v>2310011.840403867</v>
       </c>
       <c r="M30" t="n">
-        <v>1173953.040187869</v>
+        <v>774002.0760605801</v>
       </c>
       <c r="N30" t="n">
         <v>25</v>
@@ -1954,7 +1954,7 @@
         <v>3750</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01901836222457059</v>
+        <v>3.414691024267184e-06</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>1862000</v>
       </c>
       <c r="L31" t="n">
-        <v>3549506.616719971</v>
+        <v>2310010.344533036</v>
       </c>
       <c r="M31" t="n">
-        <v>1173676.442507996</v>
+        <v>774001.8516799555</v>
       </c>
       <c r="N31" t="n">
         <v>25</v>
@@ -2003,7 +2003,7 @@
         <v>3750</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05123666466238708</v>
+        <v>2.375709276317884e-09</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2012,16 +2012,16 @@
         <v>1862000</v>
       </c>
       <c r="L32" t="n">
-        <v>3692666.143462139</v>
+        <v>2310000.007197021</v>
       </c>
       <c r="M32" t="n">
-        <v>1195150.371519321</v>
+        <v>774000.3010795532</v>
       </c>
       <c r="N32" t="n">
         <v>25</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2052,7 +2052,7 @@
         <v>3750</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05049906017980895</v>
+        <v>2.246549228006134e-08</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>1862000</v>
       </c>
       <c r="L33" t="n">
-        <v>3689388.655181911</v>
+        <v>2310000.06805741</v>
       </c>
       <c r="M33" t="n">
-        <v>1194658.748277287</v>
+        <v>774000.3102086115</v>
       </c>
       <c r="N33" t="n">
         <v>25</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2101,7 +2101,7 @@
         <v>3750</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01070137552252183</v>
+        <v>3.473506018749643e-14</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>1862000</v>
       </c>
       <c r="L34" t="n">
-        <v>3512550.731707585</v>
+        <v>2310000.000000105</v>
       </c>
       <c r="M34" t="n">
-        <v>1168133.059756138</v>
+        <v>774000.3000000159</v>
       </c>
       <c r="N34" t="n">
         <v>25</v>
@@ -2150,7 +2150,7 @@
         <v>3750</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04383296505072305</v>
+        <v>9.096219321059626e-10</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         <v>1862000</v>
       </c>
       <c r="L35" t="n">
-        <v>3659768.3787648</v>
+        <v>2310000.002755627</v>
       </c>
       <c r="M35" t="n">
-        <v>1190215.70681472</v>
+        <v>774000.3004133441</v>
       </c>
       <c r="N35" t="n">
         <v>25</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2199,7 +2199,7 @@
         <v>3750</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01348254270049422</v>
+        <v>3.290865884812614e-10</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>1862000</v>
       </c>
       <c r="L36" t="n">
-        <v>3524908.632244333</v>
+        <v>2310000.000996942</v>
       </c>
       <c r="M36" t="n">
-        <v>1169986.74483665</v>
+        <v>774000.3001495412</v>
       </c>
       <c r="N36" t="n">
         <v>25</v>
@@ -2248,7 +2248,7 @@
         <v>3750</v>
       </c>
       <c r="I37" t="n">
-        <v>0.009771997100612358</v>
+        <v>1.440612183045435e-10</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>1862000</v>
       </c>
       <c r="L37" t="n">
-        <v>3508421.110809596</v>
+        <v>2310000.000436422</v>
       </c>
       <c r="M37" t="n">
-        <v>1167513.61662144</v>
+        <v>774000.3000654633</v>
       </c>
       <c r="N37" t="n">
         <v>25</v>
@@ -2297,7 +2297,7 @@
         <v>3750</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01250084077625792</v>
+        <v>4.765567974325909e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>1862000</v>
       </c>
       <c r="L38" t="n">
-        <v>3520546.515924058</v>
+        <v>2310000.000014437</v>
       </c>
       <c r="M38" t="n">
-        <v>1169332.427388609</v>
+        <v>774000.3000021656</v>
       </c>
       <c r="N38" t="n">
         <v>25</v>
@@ -2346,7 +2346,7 @@
         <v>3750</v>
       </c>
       <c r="I39" t="n">
-        <v>0.002043090151356928</v>
+        <v>3.182986232681262e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>1862000</v>
       </c>
       <c r="L39" t="n">
-        <v>3474078.312543759</v>
+        <v>2310000.000000964</v>
       </c>
       <c r="M39" t="n">
-        <v>1162362.196881564</v>
+        <v>774000.3000001446</v>
       </c>
       <c r="N39" t="n">
         <v>25</v>
@@ -2395,7 +2395,7 @@
         <v>3750</v>
       </c>
       <c r="I40" t="n">
-        <v>0.002536816078888138</v>
+        <v>4.457325516776981e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>1862000</v>
       </c>
       <c r="L40" t="n">
-        <v>3476272.145389612</v>
+        <v>2310000.00000135</v>
       </c>
       <c r="M40" t="n">
-        <v>1162691.271808442</v>
+        <v>774000.3000002026</v>
       </c>
       <c r="N40" t="n">
         <v>25</v>
@@ -2444,7 +2444,7 @@
         <v>3750</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003954260010504236</v>
+        <v>4.701617210216503e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>1862000</v>
       </c>
       <c r="L41" t="n">
-        <v>3482570.447506099</v>
+        <v>2310000.000014243</v>
       </c>
       <c r="M41" t="n">
-        <v>1163636.017125915</v>
+        <v>774000.3000021365</v>
       </c>
       <c r="N41" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         <v>3750</v>
       </c>
       <c r="I42" t="n">
-        <v>0.003417794428600575</v>
+        <v>4.468083165634477e-15</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>1862000</v>
       </c>
       <c r="L42" t="n">
-        <v>3480186.704322639</v>
+        <v>2310000.000000014</v>
       </c>
       <c r="M42" t="n">
-        <v>1163278.455648396</v>
+        <v>774000.300000002</v>
       </c>
       <c r="N42" t="n">
         <v>25</v>
@@ -2542,7 +2542,7 @@
         <v>3750</v>
       </c>
       <c r="I43" t="n">
-        <v>0.003074776344723954</v>
+        <v>3.377990980966285e-15</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2551,10 +2551,10 @@
         <v>1862000</v>
       </c>
       <c r="L43" t="n">
-        <v>3478662.530085137</v>
+        <v>2310000.00000001</v>
       </c>
       <c r="M43" t="n">
-        <v>1163049.829512771</v>
+        <v>774000.3000000016</v>
       </c>
       <c r="N43" t="n">
         <v>25</v>
@@ -2591,7 +2591,7 @@
         <v>3750</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02801949479957809</v>
+        <v>2.379485439066148e-10</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>1862000</v>
       </c>
       <c r="L44" t="n">
-        <v>3589502.450829129</v>
+        <v>2310000.000720846</v>
       </c>
       <c r="M44" t="n">
-        <v>1179675.817624369</v>
+        <v>774000.3001081269</v>
       </c>
       <c r="N44" t="n">
         <v>25</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2640,7 +2640,7 @@
         <v>3750</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01871145861746118</v>
+        <v>1.179246435453171e-11</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>1862000</v>
       </c>
       <c r="L45" t="n">
-        <v>3548142.9143575</v>
+        <v>2310000.000035724</v>
       </c>
       <c r="M45" t="n">
-        <v>1173471.887153625</v>
+        <v>774000.3000053586</v>
       </c>
       <c r="N45" t="n">
         <v>25</v>
@@ -2689,7 +2689,7 @@
         <v>3750</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05751119867661697</v>
+        <v>1.854308743407987e-07</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2698,16 +2698,16 @@
         <v>1862000</v>
       </c>
       <c r="L46" t="n">
-        <v>3720546.54845053</v>
+        <v>2310000.561747986</v>
       </c>
       <c r="M46" t="n">
-        <v>1199332.43226758</v>
+        <v>774000.384262198</v>
       </c>
       <c r="N46" t="n">
         <v>25</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2738,7 +2738,7 @@
         <v>3750</v>
       </c>
       <c r="I47" t="n">
-        <v>0.004434658928161514</v>
+        <v>3.877874278646333e-15</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2747,10 +2747,10 @@
         <v>1862000</v>
       </c>
       <c r="L47" t="n">
-        <v>3484705.062817753</v>
+        <v>2310000.000000012</v>
       </c>
       <c r="M47" t="n">
-        <v>1163956.209422663</v>
+        <v>774000.3000000018</v>
       </c>
       <c r="N47" t="n">
         <v>25</v>
@@ -2787,7 +2787,7 @@
         <v>3750</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007196814758972184</v>
+        <v>2.039304065210507e-12</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>1862000</v>
       </c>
       <c r="L48" t="n">
-        <v>3496978.487908667</v>
+        <v>2310000.000006178</v>
       </c>
       <c r="M48" t="n">
-        <v>1165797.2231863</v>
+        <v>774000.3000009267</v>
       </c>
       <c r="N48" t="n">
         <v>25</v>
@@ -2836,7 +2836,7 @@
         <v>3750</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03021582665809644</v>
+        <v>2.039609178952098e-07</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>1862000</v>
       </c>
       <c r="L49" t="n">
-        <v>3599261.681007103</v>
+        <v>2310000.617883269</v>
       </c>
       <c r="M49" t="n">
-        <v>1181139.702151066</v>
+        <v>774000.3926824904</v>
       </c>
       <c r="N49" t="n">
         <v>25</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2885,7 +2885,7 @@
         <v>3750</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01990077999813617</v>
+        <v>9.568684842981164e-08</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2894,10 +2894,10 @@
         <v>1862000</v>
       </c>
       <c r="L50" t="n">
-        <v>3553427.57162119</v>
+        <v>2310000.289875646</v>
       </c>
       <c r="M50" t="n">
-        <v>1174264.585743179</v>
+        <v>774000.3434813468</v>
       </c>
       <c r="N50" t="n">
         <v>25</v>
@@ -2934,7 +2934,7 @@
         <v>3750</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006051795666288788</v>
+        <v>6.101629375962859e-15</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>1862000</v>
       </c>
       <c r="L51" t="n">
-        <v>3491890.68442381</v>
+        <v>2310000.000000019</v>
       </c>
       <c r="M51" t="n">
-        <v>1165034.052663572</v>
+        <v>774000.3000000028</v>
       </c>
       <c r="N51" t="n">
         <v>25</v>
@@ -2983,7 +2983,7 @@
         <v>3750</v>
       </c>
       <c r="I52" t="n">
-        <v>0.004247025086038332</v>
+        <v>1.523740009176584e-13</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>1862000</v>
       </c>
       <c r="L52" t="n">
-        <v>3483871.326400665</v>
+        <v>2310000.000000461</v>
       </c>
       <c r="M52" t="n">
-        <v>1163831.1489601</v>
+        <v>774000.3000000693</v>
       </c>
       <c r="N52" t="n">
         <v>25</v>
@@ -3032,7 +3032,7 @@
         <v>3750</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01839660593944817</v>
+        <v>1.37248571519994e-08</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>1862000</v>
       </c>
       <c r="L53" t="n">
-        <v>3546743.890915317</v>
+        <v>2310000.041578356</v>
       </c>
       <c r="M53" t="n">
-        <v>1173262.033637298</v>
+        <v>774000.3062367534</v>
       </c>
       <c r="N53" t="n">
         <v>25</v>
@@ -3081,7 +3081,7 @@
         <v>3750</v>
       </c>
       <c r="I54" t="n">
-        <v>0.005545146625786718</v>
+        <v>1.151081687769889e-11</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>1862000</v>
       </c>
       <c r="L54" t="n">
-        <v>3489639.428728305</v>
+        <v>2310000.000034871</v>
       </c>
       <c r="M54" t="n">
-        <v>1164696.364309246</v>
+        <v>774000.3000052307</v>
       </c>
       <c r="N54" t="n">
         <v>25</v>
@@ -3130,7 +3130,7 @@
         <v>3750</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01521611954834951</v>
+        <v>5.418173582029636e-11</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>1862000</v>
       </c>
       <c r="L55" t="n">
-        <v>3532611.646442214</v>
+        <v>2310000.000164139</v>
       </c>
       <c r="M55" t="n">
-        <v>1171142.196966332</v>
+        <v>774000.300024621</v>
       </c>
       <c r="N55" t="n">
         <v>25</v>
@@ -3179,7 +3179,7 @@
         <v>3750</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02841673200091408</v>
+        <v>5.785470719174323e-10</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3188,16 +3188,16 @@
         <v>1862000</v>
       </c>
       <c r="L56" t="n">
-        <v>3591267.543507658</v>
+        <v>2310000.001752662</v>
       </c>
       <c r="M56" t="n">
-        <v>1179940.581526149</v>
+        <v>774000.3002628994</v>
       </c>
       <c r="N56" t="n">
         <v>25</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3228,7 +3228,7 @@
         <v>3750</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00760020495023055</v>
+        <v>1.957897622279665e-15</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>1862000</v>
       </c>
       <c r="L57" t="n">
-        <v>3498770.920920445</v>
+        <v>2310000.000000006</v>
       </c>
       <c r="M57" t="n">
-        <v>1166066.088138067</v>
+        <v>774000.300000001</v>
       </c>
       <c r="N57" t="n">
         <v>25</v>
@@ -3277,7 +3277,7 @@
         <v>3750</v>
       </c>
       <c r="I58" t="n">
-        <v>0.006650350677436752</v>
+        <v>3.759841913854331e-12</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>1862000</v>
       </c>
       <c r="L58" t="n">
-        <v>3494550.317167978</v>
+        <v>2310000.00001139</v>
       </c>
       <c r="M58" t="n">
-        <v>1165432.997575197</v>
+        <v>774000.3000017086</v>
       </c>
       <c r="N58" t="n">
         <v>25</v>
@@ -3326,7 +3326,7 @@
         <v>3750</v>
       </c>
       <c r="I59" t="n">
-        <v>0.006690432665458161</v>
+        <v>3.869873233796639e-12</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>1862000</v>
       </c>
       <c r="L59" t="n">
-        <v>3494728.418371389</v>
+        <v>2310000.000011723</v>
       </c>
       <c r="M59" t="n">
-        <v>1165459.712755708</v>
+        <v>774000.3000017586</v>
       </c>
       <c r="N59" t="n">
         <v>25</v>
@@ -3375,7 +3375,7 @@
         <v>3750</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04580017652380888</v>
+        <v>1.031175704507181e-12</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>1862000</v>
       </c>
       <c r="L60" t="n">
-        <v>3668509.530289846</v>
+        <v>2310000.000003124</v>
       </c>
       <c r="M60" t="n">
-        <v>1191526.879543477</v>
+        <v>774000.3000004686</v>
       </c>
       <c r="N60" t="n">
         <v>25</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3424,7 +3424,7 @@
         <v>3750</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0543898413259997</v>
+        <v>1.333748043910229e-08</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>1862000</v>
       </c>
       <c r="L61" t="n">
-        <v>3706677.039280393</v>
+        <v>2310000.040404829</v>
       </c>
       <c r="M61" t="n">
-        <v>1197252.005892059</v>
+        <v>774000.3060607244</v>
       </c>
       <c r="N61" t="n">
         <v>25</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3473,7 +3473,7 @@
         <v>3750</v>
       </c>
       <c r="I62" t="n">
-        <v>0.006915033533553032</v>
+        <v>2.016523446649112e-14</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3482,10 +3482,10 @@
         <v>1862000</v>
       </c>
       <c r="L62" t="n">
-        <v>3495726.414899741</v>
+        <v>2310000.000000061</v>
       </c>
       <c r="M62" t="n">
-        <v>1165609.412234961</v>
+        <v>774000.3000000092</v>
       </c>
       <c r="N62" t="n">
         <v>25</v>
@@ -3522,7 +3522,7 @@
         <v>3750</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01065058617736986</v>
+        <v>4.195296836435806e-14</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>1862000</v>
       </c>
       <c r="L63" t="n">
-        <v>3512325.053193656</v>
+        <v>2310000.000000127</v>
       </c>
       <c r="M63" t="n">
-        <v>1168099.207979049</v>
+        <v>774000.3000000191</v>
       </c>
       <c r="N63" t="n">
         <v>25</v>
@@ -3571,7 +3571,7 @@
         <v>3750</v>
       </c>
       <c r="I64" t="n">
-        <v>0.06979093553401572</v>
+        <v>5.577149559328505e-07</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3580,16 +3580,16 @@
         <v>1862000</v>
       </c>
       <c r="L64" t="n">
-        <v>3775110.606268802</v>
+        <v>2310001.689552802</v>
       </c>
       <c r="M64" t="n">
-        <v>1207517.04094032</v>
+        <v>774000.5534329202</v>
       </c>
       <c r="N64" t="n">
         <v>25</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3620,7 +3620,7 @@
         <v>3750</v>
       </c>
       <c r="I65" t="n">
-        <v>0.06199902938353493</v>
+        <v>2.742732052274734e-07</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>1862000</v>
       </c>
       <c r="L65" t="n">
-        <v>3740487.875941057</v>
+        <v>2310000.830888714</v>
       </c>
       <c r="M65" t="n">
-        <v>1202323.631391159</v>
+        <v>774000.424633307</v>
       </c>
       <c r="N65" t="n">
         <v>25</v>
       </c>
       <c r="O65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3669,7 +3669,7 @@
         <v>3750</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04184651990546936</v>
+        <v>8.990645417898182e-07</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>1862000</v>
       </c>
       <c r="L66" t="n">
-        <v>3650941.763910009</v>
+        <v>2310002.723644039</v>
       </c>
       <c r="M66" t="n">
-        <v>1188891.714586501</v>
+        <v>774000.7085466059</v>
       </c>
       <c r="N66" t="n">
         <v>25</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3718,7 +3718,7 @@
         <v>3750</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02140155007795714</v>
+        <v>2.890905771468493e-06</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3727,16 +3727,16 @@
         <v>1862000</v>
       </c>
       <c r="L67" t="n">
-        <v>3560096.127011117</v>
+        <v>2310008.757767554</v>
       </c>
       <c r="M67" t="n">
-        <v>1175264.869051668</v>
+        <v>774001.6136651331</v>
       </c>
       <c r="N67" t="n">
         <v>25</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3767,7 +3767,7 @@
         <v>3750</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03988012046238776</v>
+        <v>3.996965520791363e-07</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3776,16 +3776,16 @@
         <v>1862000</v>
       </c>
       <c r="L68" t="n">
-        <v>3642204.220577272</v>
+        <v>2310001.2108487</v>
       </c>
       <c r="M68" t="n">
-        <v>1187581.083086591</v>
+        <v>774000.481627305</v>
       </c>
       <c r="N68" t="n">
         <v>25</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3816,7 +3816,7 @@
         <v>7350</v>
       </c>
       <c r="I69" t="n">
-        <v>0.05265060508411384</v>
+        <v>1.289465622219117e-06</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3825,16 +3825,16 @@
         <v>1862000</v>
       </c>
       <c r="L69" t="n">
-        <v>3698948.878004306</v>
+        <v>2310003.906332852</v>
       </c>
       <c r="M69" t="n">
-        <v>1206892.781700646</v>
+        <v>781200.8859499278</v>
       </c>
       <c r="N69" t="n">
         <v>25</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3865,7 +3865,7 @@
         <v>7350</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03999204661661571</v>
+        <v>3.434288558235233e-09</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3874,16 +3874,16 @@
         <v>1862000</v>
       </c>
       <c r="L70" t="n">
-        <v>3642701.555758114</v>
+        <v>2310000.010403902</v>
       </c>
       <c r="M70" t="n">
-        <v>1198455.683363717</v>
+        <v>781200.3015605854</v>
       </c>
       <c r="N70" t="n">
         <v>25</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3914,7 +3914,7 @@
         <v>7350</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03953749759108265</v>
+        <v>3.084818646982293e-09</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3923,16 +3923,16 @@
         <v>1862000</v>
       </c>
       <c r="L71" t="n">
-        <v>3640681.802436163</v>
+        <v>2310000.009345211</v>
       </c>
       <c r="M71" t="n">
-        <v>1198152.720365425</v>
+        <v>781200.3014017817</v>
       </c>
       <c r="N71" t="n">
         <v>25</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3963,7 +3963,7 @@
         <v>7350</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07831395130800756</v>
+        <v>1.204107229643718e-09</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3972,16 +3972,16 @@
         <v>1862000</v>
       </c>
       <c r="L72" t="n">
-        <v>3812981.96547451</v>
+        <v>2310000.003647747</v>
       </c>
       <c r="M72" t="n">
-        <v>1223997.744821177</v>
+        <v>781200.300547162</v>
       </c>
       <c r="N72" t="n">
         <v>25</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4012,7 +4012,7 @@
         <v>7350</v>
       </c>
       <c r="I73" t="n">
-        <v>0.08137950819075079</v>
+        <v>2.131295166453011e-06</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>1862000</v>
       </c>
       <c r="L73" t="n">
-        <v>3826603.529595765</v>
+        <v>2310006.456588049</v>
       </c>
       <c r="M73" t="n">
-        <v>1226040.979439365</v>
+        <v>781201.2684882075</v>
       </c>
       <c r="N73" t="n">
         <v>25</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4061,7 +4061,7 @@
         <v>7350</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06112468730865084</v>
+        <v>7.833398780762e-09</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>1862000</v>
       </c>
       <c r="L74" t="n">
-        <v>3736602.804780255</v>
+        <v>2310000.023730654</v>
       </c>
       <c r="M74" t="n">
-        <v>1212540.870717038</v>
+        <v>781200.3035595982</v>
       </c>
       <c r="N74" t="n">
         <v>25</v>
       </c>
       <c r="O74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4110,7 +4110,7 @@
         <v>7350</v>
       </c>
       <c r="I75" t="n">
-        <v>0.07003066644258275</v>
+        <v>1.084769738206371e-06</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4119,16 +4119,16 @@
         <v>1862000</v>
       </c>
       <c r="L75" t="n">
-        <v>3776175.8319579</v>
+        <v>2310003.286223062</v>
       </c>
       <c r="M75" t="n">
-        <v>1218476.824793685</v>
+        <v>781200.7929334594</v>
       </c>
       <c r="N75" t="n">
         <v>25</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4159,7 +4159,7 @@
         <v>7350</v>
       </c>
       <c r="I76" t="n">
-        <v>0.05937151087865607</v>
+        <v>8.573261936293672e-09</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4168,16 +4168,16 @@
         <v>1862000</v>
       </c>
       <c r="L76" t="n">
-        <v>3728812.701360064</v>
+        <v>2310000.025972011</v>
       </c>
       <c r="M76" t="n">
-        <v>1211372.35520401</v>
+        <v>781200.3038958017</v>
       </c>
       <c r="N76" t="n">
         <v>25</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/chandigarh_karnal/initial_evci_analysis.xlsx
+++ b/output/chandigarh_karnal/initial_evci_analysis.xlsx
@@ -533,7 +533,7 @@
         <v>7350</v>
       </c>
       <c r="I2" t="n">
-        <v>1.472901880180053e-05</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>1862000</v>
       </c>
       <c r="L2" t="n">
-        <v>2310044.620383076</v>
+        <v>2310000</v>
       </c>
       <c r="M2" t="n">
-        <v>781206.9930574615</v>
+        <v>781200.3</v>
       </c>
       <c r="N2" t="n">
         <v>25</v>
@@ -582,7 +582,7 @@
         <v>7350</v>
       </c>
       <c r="I3" t="n">
-        <v>3.521129923359061e-08</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>1862000</v>
       </c>
       <c r="L3" t="n">
-        <v>2310000.106669812</v>
+        <v>2310000</v>
       </c>
       <c r="M3" t="n">
-        <v>781200.3160004718</v>
+        <v>781200.3</v>
       </c>
       <c r="N3" t="n">
         <v>25</v>
@@ -631,7 +631,7 @@
         <v>7350</v>
       </c>
       <c r="I4" t="n">
-        <v>8.873398508567271e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>1862000</v>
       </c>
       <c r="L4" t="n">
-        <v>2310000.000026881</v>
+        <v>2310000</v>
       </c>
       <c r="M4" t="n">
-        <v>781200.3000040322</v>
+        <v>781200.3</v>
       </c>
       <c r="N4" t="n">
         <v>25</v>
@@ -680,7 +680,7 @@
         <v>7350</v>
       </c>
       <c r="I5" t="n">
-        <v>3.495913571549659e-12</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>1862000</v>
       </c>
       <c r="L5" t="n">
-        <v>2310000.000010591</v>
+        <v>2310000</v>
       </c>
       <c r="M5" t="n">
-        <v>781200.3000015887</v>
+        <v>781200.3</v>
       </c>
       <c r="N5" t="n">
         <v>25</v>
@@ -729,7 +729,7 @@
         <v>7350</v>
       </c>
       <c r="I6" t="n">
-        <v>3.73610037275381e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>1862000</v>
       </c>
       <c r="L6" t="n">
-        <v>2310000.000011318</v>
+        <v>2310000</v>
       </c>
       <c r="M6" t="n">
-        <v>781200.3000016977</v>
+        <v>781200.3</v>
       </c>
       <c r="N6" t="n">
         <v>25</v>
@@ -778,7 +778,7 @@
         <v>7350</v>
       </c>
       <c r="I7" t="n">
-        <v>4.139363907267092e-11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>1862000</v>
       </c>
       <c r="L7" t="n">
-        <v>2310000.000125399</v>
+        <v>2310000</v>
       </c>
       <c r="M7" t="n">
-        <v>781200.3000188099</v>
+        <v>781200.3</v>
       </c>
       <c r="N7" t="n">
         <v>25</v>
@@ -827,7 +827,7 @@
         <v>7350</v>
       </c>
       <c r="I8" t="n">
-        <v>1.258941991474983e-11</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>1862000</v>
       </c>
       <c r="L8" t="n">
-        <v>2310000.000038139</v>
+        <v>2310000</v>
       </c>
       <c r="M8" t="n">
-        <v>781200.3000057208</v>
+        <v>781200.3</v>
       </c>
       <c r="N8" t="n">
         <v>25</v>
@@ -876,7 +876,7 @@
         <v>7350</v>
       </c>
       <c r="I9" t="n">
-        <v>1.068475511975855e-09</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>1862000</v>
       </c>
       <c r="L9" t="n">
-        <v>2310000.003236861</v>
+        <v>2310000</v>
       </c>
       <c r="M9" t="n">
-        <v>781200.3004855292</v>
+        <v>781200.3</v>
       </c>
       <c r="N9" t="n">
         <v>25</v>
@@ -925,7 +925,7 @@
         <v>3750</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71443762953055e-09</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>1862000</v>
       </c>
       <c r="L10" t="n">
-        <v>2310000.005193751</v>
+        <v>2310000</v>
       </c>
       <c r="M10" t="n">
-        <v>774000.3007790628</v>
+        <v>774000.3</v>
       </c>
       <c r="N10" t="n">
         <v>25</v>
@@ -974,7 +974,7 @@
         <v>3750</v>
       </c>
       <c r="I11" t="n">
-        <v>3.444280359370055e-05</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>1862000</v>
       </c>
       <c r="L11" t="n">
-        <v>2310104.341715579</v>
+        <v>2310000</v>
       </c>
       <c r="M11" t="n">
-        <v>774015.9512573369</v>
+        <v>774000.3</v>
       </c>
       <c r="N11" t="n">
         <v>25</v>
@@ -1023,7 +1023,7 @@
         <v>3750</v>
       </c>
       <c r="I12" t="n">
-        <v>3.955458779647367e-07</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>1862000</v>
       </c>
       <c r="L12" t="n">
-        <v>2310001.198274565</v>
+        <v>2310000</v>
       </c>
       <c r="M12" t="n">
-        <v>774000.4797411849</v>
+        <v>774000.3</v>
       </c>
       <c r="N12" t="n">
         <v>25</v>
@@ -1072,7 +1072,7 @@
         <v>3750</v>
       </c>
       <c r="I13" t="n">
-        <v>3.094295636064404e-07</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>1862000</v>
       </c>
       <c r="L13" t="n">
-        <v>2310000.937392086</v>
+        <v>2310000</v>
       </c>
       <c r="M13" t="n">
-        <v>774000.440608813</v>
+        <v>774000.3</v>
       </c>
       <c r="N13" t="n">
         <v>25</v>
@@ -1121,7 +1121,7 @@
         <v>3750</v>
       </c>
       <c r="I14" t="n">
-        <v>1.332801156182824e-06</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>1862000</v>
       </c>
       <c r="L14" t="n">
-        <v>2310004.037614382</v>
+        <v>2310000</v>
       </c>
       <c r="M14" t="n">
-        <v>774000.9056421574</v>
+        <v>774000.3</v>
       </c>
       <c r="N14" t="n">
         <v>25</v>
@@ -1170,7 +1170,7 @@
         <v>3750</v>
       </c>
       <c r="I15" t="n">
-        <v>3.067107232723043e-08</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>1862000</v>
       </c>
       <c r="L15" t="n">
-        <v>2310000.092915558</v>
+        <v>2310000</v>
       </c>
       <c r="M15" t="n">
-        <v>774000.3139373338</v>
+        <v>774000.3</v>
       </c>
       <c r="N15" t="n">
         <v>25</v>
@@ -1219,7 +1219,7 @@
         <v>3750</v>
       </c>
       <c r="I16" t="n">
-        <v>5.519560966762086e-07</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>1862000</v>
       </c>
       <c r="L16" t="n">
-        <v>2310001.672106799</v>
+        <v>2310000</v>
       </c>
       <c r="M16" t="n">
-        <v>774000.5508160199</v>
+        <v>774000.3</v>
       </c>
       <c r="N16" t="n">
         <v>25</v>
@@ -1268,7 +1268,7 @@
         <v>3750</v>
       </c>
       <c r="I17" t="n">
-        <v>2.222821943542933e-07</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>1862000</v>
       </c>
       <c r="L17" t="n">
-        <v>2310000.673386109</v>
+        <v>2310000</v>
       </c>
       <c r="M17" t="n">
-        <v>774000.4010079164</v>
+        <v>774000.3</v>
       </c>
       <c r="N17" t="n">
         <v>25</v>
@@ -1317,7 +1317,7 @@
         <v>3750</v>
       </c>
       <c r="I18" t="n">
-        <v>3.43071026439136e-07</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>1862000</v>
       </c>
       <c r="L18" t="n">
-        <v>2310001.039306204</v>
+        <v>2310000</v>
       </c>
       <c r="M18" t="n">
-        <v>774000.4558959306</v>
+        <v>774000.3</v>
       </c>
       <c r="N18" t="n">
         <v>25</v>
@@ -1366,7 +1366,7 @@
         <v>3750</v>
       </c>
       <c r="I19" t="n">
-        <v>9.462000143744211e-05</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>1862000</v>
       </c>
       <c r="L19" t="n">
-        <v>2310286.643717931</v>
+        <v>2310000</v>
       </c>
       <c r="M19" t="n">
-        <v>774043.2965576897</v>
+        <v>774000.3</v>
       </c>
       <c r="N19" t="n">
         <v>25</v>
@@ -1415,7 +1415,7 @@
         <v>3750</v>
       </c>
       <c r="I20" t="n">
-        <v>3.599896852046942e-06</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>1862000</v>
       </c>
       <c r="L20" t="n">
-        <v>2310010.905599262</v>
+        <v>2310000</v>
       </c>
       <c r="M20" t="n">
-        <v>774001.9358398893</v>
+        <v>774000.3</v>
       </c>
       <c r="N20" t="n">
         <v>25</v>
@@ -1464,7 +1464,7 @@
         <v>3750</v>
       </c>
       <c r="I21" t="n">
-        <v>2.137267004199982e-08</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>1862000</v>
       </c>
       <c r="L21" t="n">
-        <v>2310000.064746792</v>
+        <v>2310000</v>
       </c>
       <c r="M21" t="n">
-        <v>774000.3097120189</v>
+        <v>774000.3</v>
       </c>
       <c r="N21" t="n">
         <v>25</v>
@@ -1513,7 +1513,7 @@
         <v>3750</v>
       </c>
       <c r="I22" t="n">
-        <v>2.888883804892045e-08</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>1862000</v>
       </c>
       <c r="L22" t="n">
-        <v>2310000.087516421</v>
+        <v>2310000</v>
       </c>
       <c r="M22" t="n">
-        <v>774000.3131274633</v>
+        <v>774000.3</v>
       </c>
       <c r="N22" t="n">
         <v>25</v>
@@ -1562,7 +1562,7 @@
         <v>3750</v>
       </c>
       <c r="I23" t="n">
-        <v>6.001384480416364e-06</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1571,10 +1571,10 @@
         <v>1862000</v>
       </c>
       <c r="L23" t="n">
-        <v>2310018.18071374</v>
+        <v>2310000</v>
       </c>
       <c r="M23" t="n">
-        <v>774003.027107061</v>
+        <v>774000.3</v>
       </c>
       <c r="N23" t="n">
         <v>25</v>
@@ -1611,7 +1611,7 @@
         <v>3750</v>
       </c>
       <c r="I24" t="n">
-        <v>5.622770430368879e-06</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>1862000</v>
       </c>
       <c r="L24" t="n">
-        <v>2310017.033732791</v>
+        <v>2310000</v>
       </c>
       <c r="M24" t="n">
-        <v>774002.8550599188</v>
+        <v>774000.3</v>
       </c>
       <c r="N24" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
         <v>3750</v>
       </c>
       <c r="I25" t="n">
-        <v>0.007831950612662859</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>1862000</v>
       </c>
       <c r="L25" t="n">
-        <v>2333726.267260169</v>
+        <v>2310000</v>
       </c>
       <c r="M25" t="n">
-        <v>777559.2400890253</v>
+        <v>774000.3</v>
       </c>
       <c r="N25" t="n">
         <v>25</v>
@@ -1709,7 +1709,7 @@
         <v>3750</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001959638763234488</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         <v>1862000</v>
       </c>
       <c r="L26" t="n">
-        <v>2310593.656872079</v>
+        <v>2310000</v>
       </c>
       <c r="M26" t="n">
-        <v>774089.3485308118</v>
+        <v>774000.3</v>
       </c>
       <c r="N26" t="n">
         <v>25</v>
@@ -1758,7 +1758,7 @@
         <v>3750</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001415195428913082</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>1862000</v>
       </c>
       <c r="L27" t="n">
-        <v>2314287.221234193</v>
+        <v>2310000</v>
       </c>
       <c r="M27" t="n">
-        <v>774643.383185129</v>
+        <v>774000.3</v>
       </c>
       <c r="N27" t="n">
         <v>25</v>
@@ -1807,7 +1807,7 @@
         <v>3750</v>
       </c>
       <c r="I28" t="n">
-        <v>1.971543793293295e-08</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>1862000</v>
       </c>
       <c r="L28" t="n">
-        <v>2310000.059726341</v>
+        <v>2310000</v>
       </c>
       <c r="M28" t="n">
-        <v>774000.3089589512</v>
+        <v>774000.3</v>
       </c>
       <c r="N28" t="n">
         <v>25</v>
@@ -1856,7 +1856,7 @@
         <v>3750</v>
       </c>
       <c r="I29" t="n">
-        <v>9.99746789398176e-10</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>1862000</v>
       </c>
       <c r="L29" t="n">
-        <v>2310000.003028653</v>
+        <v>2310000</v>
       </c>
       <c r="M29" t="n">
-        <v>774000.3004542979</v>
+        <v>774000.3</v>
       </c>
       <c r="N29" t="n">
         <v>25</v>
@@ -1905,7 +1905,7 @@
         <v>3750</v>
       </c>
       <c r="I30" t="n">
-        <v>3.908472297980035e-06</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>1862000</v>
       </c>
       <c r="L30" t="n">
-        <v>2310011.840403867</v>
+        <v>2310000</v>
       </c>
       <c r="M30" t="n">
-        <v>774002.0760605801</v>
+        <v>774000.3</v>
       </c>
       <c r="N30" t="n">
         <v>25</v>
@@ -1954,7 +1954,7 @@
         <v>3750</v>
       </c>
       <c r="I31" t="n">
-        <v>3.414691024267184e-06</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>1862000</v>
       </c>
       <c r="L31" t="n">
-        <v>2310010.344533036</v>
+        <v>2310000</v>
       </c>
       <c r="M31" t="n">
-        <v>774001.8516799555</v>
+        <v>774000.3</v>
       </c>
       <c r="N31" t="n">
         <v>25</v>
@@ -2003,7 +2003,7 @@
         <v>3750</v>
       </c>
       <c r="I32" t="n">
-        <v>2.375709276317884e-09</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>1862000</v>
       </c>
       <c r="L32" t="n">
-        <v>2310000.007197021</v>
+        <v>2310000</v>
       </c>
       <c r="M32" t="n">
-        <v>774000.3010795532</v>
+        <v>774000.3</v>
       </c>
       <c r="N32" t="n">
         <v>25</v>
@@ -2052,7 +2052,7 @@
         <v>3750</v>
       </c>
       <c r="I33" t="n">
-        <v>2.246549228006134e-08</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>1862000</v>
       </c>
       <c r="L33" t="n">
-        <v>2310000.06805741</v>
+        <v>2310000</v>
       </c>
       <c r="M33" t="n">
-        <v>774000.3102086115</v>
+        <v>774000.3</v>
       </c>
       <c r="N33" t="n">
         <v>25</v>
@@ -2101,7 +2101,7 @@
         <v>3750</v>
       </c>
       <c r="I34" t="n">
-        <v>3.473506018749643e-14</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>1862000</v>
       </c>
       <c r="L34" t="n">
-        <v>2310000.000000105</v>
+        <v>2310000</v>
       </c>
       <c r="M34" t="n">
-        <v>774000.3000000159</v>
+        <v>774000.3</v>
       </c>
       <c r="N34" t="n">
         <v>25</v>
@@ -2150,7 +2150,7 @@
         <v>3750</v>
       </c>
       <c r="I35" t="n">
-        <v>9.096219321059626e-10</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>1862000</v>
       </c>
       <c r="L35" t="n">
-        <v>2310000.002755627</v>
+        <v>2310000</v>
       </c>
       <c r="M35" t="n">
-        <v>774000.3004133441</v>
+        <v>774000.3</v>
       </c>
       <c r="N35" t="n">
         <v>25</v>
@@ -2199,7 +2199,7 @@
         <v>3750</v>
       </c>
       <c r="I36" t="n">
-        <v>3.290865884812614e-10</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>1862000</v>
       </c>
       <c r="L36" t="n">
-        <v>2310000.000996942</v>
+        <v>2310000</v>
       </c>
       <c r="M36" t="n">
-        <v>774000.3001495412</v>
+        <v>774000.3</v>
       </c>
       <c r="N36" t="n">
         <v>25</v>
@@ -2248,7 +2248,7 @@
         <v>3750</v>
       </c>
       <c r="I37" t="n">
-        <v>1.440612183045435e-10</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>1862000</v>
       </c>
       <c r="L37" t="n">
-        <v>2310000.000436422</v>
+        <v>2310000</v>
       </c>
       <c r="M37" t="n">
-        <v>774000.3000654633</v>
+        <v>774000.3</v>
       </c>
       <c r="N37" t="n">
         <v>25</v>
@@ -2297,7 +2297,7 @@
         <v>3750</v>
       </c>
       <c r="I38" t="n">
-        <v>4.765567974325909e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>1862000</v>
       </c>
       <c r="L38" t="n">
-        <v>2310000.000014437</v>
+        <v>2310000</v>
       </c>
       <c r="M38" t="n">
-        <v>774000.3000021656</v>
+        <v>774000.3</v>
       </c>
       <c r="N38" t="n">
         <v>25</v>
@@ -2346,7 +2346,7 @@
         <v>3750</v>
       </c>
       <c r="I39" t="n">
-        <v>3.182986232681262e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>1862000</v>
       </c>
       <c r="L39" t="n">
-        <v>2310000.000000964</v>
+        <v>2310000</v>
       </c>
       <c r="M39" t="n">
-        <v>774000.3000001446</v>
+        <v>774000.3</v>
       </c>
       <c r="N39" t="n">
         <v>25</v>
@@ -2395,7 +2395,7 @@
         <v>3750</v>
       </c>
       <c r="I40" t="n">
-        <v>4.457325516776981e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>1862000</v>
       </c>
       <c r="L40" t="n">
-        <v>2310000.00000135</v>
+        <v>2310000</v>
       </c>
       <c r="M40" t="n">
-        <v>774000.3000002026</v>
+        <v>774000.3</v>
       </c>
       <c r="N40" t="n">
         <v>25</v>
@@ -2444,7 +2444,7 @@
         <v>3750</v>
       </c>
       <c r="I41" t="n">
-        <v>4.701617210216503e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>1862000</v>
       </c>
       <c r="L41" t="n">
-        <v>2310000.000014243</v>
+        <v>2310000</v>
       </c>
       <c r="M41" t="n">
-        <v>774000.3000021365</v>
+        <v>774000.3</v>
       </c>
       <c r="N41" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         <v>3750</v>
       </c>
       <c r="I42" t="n">
-        <v>4.468083165634477e-15</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>1862000</v>
       </c>
       <c r="L42" t="n">
-        <v>2310000.000000014</v>
+        <v>2310000</v>
       </c>
       <c r="M42" t="n">
-        <v>774000.300000002</v>
+        <v>774000.3</v>
       </c>
       <c r="N42" t="n">
         <v>25</v>
@@ -2542,7 +2542,7 @@
         <v>3750</v>
       </c>
       <c r="I43" t="n">
-        <v>3.377990980966285e-15</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2551,10 +2551,10 @@
         <v>1862000</v>
       </c>
       <c r="L43" t="n">
-        <v>2310000.00000001</v>
+        <v>2310000</v>
       </c>
       <c r="M43" t="n">
-        <v>774000.3000000016</v>
+        <v>774000.3</v>
       </c>
       <c r="N43" t="n">
         <v>25</v>
@@ -2591,7 +2591,7 @@
         <v>3750</v>
       </c>
       <c r="I44" t="n">
-        <v>2.379485439066148e-10</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>1862000</v>
       </c>
       <c r="L44" t="n">
-        <v>2310000.000720846</v>
+        <v>2310000</v>
       </c>
       <c r="M44" t="n">
-        <v>774000.3001081269</v>
+        <v>774000.3</v>
       </c>
       <c r="N44" t="n">
         <v>25</v>
@@ -2640,7 +2640,7 @@
         <v>3750</v>
       </c>
       <c r="I45" t="n">
-        <v>1.179246435453171e-11</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>1862000</v>
       </c>
       <c r="L45" t="n">
-        <v>2310000.000035724</v>
+        <v>2310000</v>
       </c>
       <c r="M45" t="n">
-        <v>774000.3000053586</v>
+        <v>774000.3</v>
       </c>
       <c r="N45" t="n">
         <v>25</v>
@@ -2689,7 +2689,7 @@
         <v>3750</v>
       </c>
       <c r="I46" t="n">
-        <v>1.854308743407987e-07</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2698,10 +2698,10 @@
         <v>1862000</v>
       </c>
       <c r="L46" t="n">
-        <v>2310000.561747986</v>
+        <v>2310000</v>
       </c>
       <c r="M46" t="n">
-        <v>774000.384262198</v>
+        <v>774000.3</v>
       </c>
       <c r="N46" t="n">
         <v>25</v>
@@ -2738,7 +2738,7 @@
         <v>3750</v>
       </c>
       <c r="I47" t="n">
-        <v>3.877874278646333e-15</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2747,10 +2747,10 @@
         <v>1862000</v>
       </c>
       <c r="L47" t="n">
-        <v>2310000.000000012</v>
+        <v>2310000</v>
       </c>
       <c r="M47" t="n">
-        <v>774000.3000000018</v>
+        <v>774000.3</v>
       </c>
       <c r="N47" t="n">
         <v>25</v>
@@ -2787,7 +2787,7 @@
         <v>3750</v>
       </c>
       <c r="I48" t="n">
-        <v>2.039304065210507e-12</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>1862000</v>
       </c>
       <c r="L48" t="n">
-        <v>2310000.000006178</v>
+        <v>2310000</v>
       </c>
       <c r="M48" t="n">
-        <v>774000.3000009267</v>
+        <v>774000.3</v>
       </c>
       <c r="N48" t="n">
         <v>25</v>
@@ -2836,7 +2836,7 @@
         <v>3750</v>
       </c>
       <c r="I49" t="n">
-        <v>2.039609178952098e-07</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>1862000</v>
       </c>
       <c r="L49" t="n">
-        <v>2310000.617883269</v>
+        <v>2310000</v>
       </c>
       <c r="M49" t="n">
-        <v>774000.3926824904</v>
+        <v>774000.3</v>
       </c>
       <c r="N49" t="n">
         <v>25</v>
@@ -2885,7 +2885,7 @@
         <v>3750</v>
       </c>
       <c r="I50" t="n">
-        <v>9.568684842981164e-08</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2894,10 +2894,10 @@
         <v>1862000</v>
       </c>
       <c r="L50" t="n">
-        <v>2310000.289875646</v>
+        <v>2310000</v>
       </c>
       <c r="M50" t="n">
-        <v>774000.3434813468</v>
+        <v>774000.3</v>
       </c>
       <c r="N50" t="n">
         <v>25</v>
@@ -2934,7 +2934,7 @@
         <v>3750</v>
       </c>
       <c r="I51" t="n">
-        <v>6.101629375962859e-15</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>1862000</v>
       </c>
       <c r="L51" t="n">
-        <v>2310000.000000019</v>
+        <v>2310000</v>
       </c>
       <c r="M51" t="n">
-        <v>774000.3000000028</v>
+        <v>774000.3</v>
       </c>
       <c r="N51" t="n">
         <v>25</v>
@@ -2983,7 +2983,7 @@
         <v>3750</v>
       </c>
       <c r="I52" t="n">
-        <v>1.523740009176584e-13</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>1862000</v>
       </c>
       <c r="L52" t="n">
-        <v>2310000.000000461</v>
+        <v>2310000</v>
       </c>
       <c r="M52" t="n">
-        <v>774000.3000000693</v>
+        <v>774000.3</v>
       </c>
       <c r="N52" t="n">
         <v>25</v>
@@ -3032,7 +3032,7 @@
         <v>3750</v>
       </c>
       <c r="I53" t="n">
-        <v>1.37248571519994e-08</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>1862000</v>
       </c>
       <c r="L53" t="n">
-        <v>2310000.041578356</v>
+        <v>2310000</v>
       </c>
       <c r="M53" t="n">
-        <v>774000.3062367534</v>
+        <v>774000.3</v>
       </c>
       <c r="N53" t="n">
         <v>25</v>
@@ -3081,7 +3081,7 @@
         <v>3750</v>
       </c>
       <c r="I54" t="n">
-        <v>1.151081687769889e-11</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>1862000</v>
       </c>
       <c r="L54" t="n">
-        <v>2310000.000034871</v>
+        <v>2310000</v>
       </c>
       <c r="M54" t="n">
-        <v>774000.3000052307</v>
+        <v>774000.3</v>
       </c>
       <c r="N54" t="n">
         <v>25</v>
@@ -3130,7 +3130,7 @@
         <v>3750</v>
       </c>
       <c r="I55" t="n">
-        <v>5.418173582029636e-11</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>1862000</v>
       </c>
       <c r="L55" t="n">
-        <v>2310000.000164139</v>
+        <v>2310000</v>
       </c>
       <c r="M55" t="n">
-        <v>774000.300024621</v>
+        <v>774000.3</v>
       </c>
       <c r="N55" t="n">
         <v>25</v>
@@ -3179,7 +3179,7 @@
         <v>3750</v>
       </c>
       <c r="I56" t="n">
-        <v>5.785470719174323e-10</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>1862000</v>
       </c>
       <c r="L56" t="n">
-        <v>2310000.001752662</v>
+        <v>2310000</v>
       </c>
       <c r="M56" t="n">
-        <v>774000.3002628994</v>
+        <v>774000.3</v>
       </c>
       <c r="N56" t="n">
         <v>25</v>
@@ -3228,7 +3228,7 @@
         <v>3750</v>
       </c>
       <c r="I57" t="n">
-        <v>1.957897622279665e-15</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>1862000</v>
       </c>
       <c r="L57" t="n">
-        <v>2310000.000000006</v>
+        <v>2310000</v>
       </c>
       <c r="M57" t="n">
-        <v>774000.300000001</v>
+        <v>774000.3</v>
       </c>
       <c r="N57" t="n">
         <v>25</v>
@@ -3277,7 +3277,7 @@
         <v>3750</v>
       </c>
       <c r="I58" t="n">
-        <v>3.759841913854331e-12</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>1862000</v>
       </c>
       <c r="L58" t="n">
-        <v>2310000.00001139</v>
+        <v>2310000</v>
       </c>
       <c r="M58" t="n">
-        <v>774000.3000017086</v>
+        <v>774000.3</v>
       </c>
       <c r="N58" t="n">
         <v>25</v>
@@ -3326,7 +3326,7 @@
         <v>3750</v>
       </c>
       <c r="I59" t="n">
-        <v>3.869873233796639e-12</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>1862000</v>
       </c>
       <c r="L59" t="n">
-        <v>2310000.000011723</v>
+        <v>2310000</v>
       </c>
       <c r="M59" t="n">
-        <v>774000.3000017586</v>
+        <v>774000.3</v>
       </c>
       <c r="N59" t="n">
         <v>25</v>
@@ -3375,7 +3375,7 @@
         <v>3750</v>
       </c>
       <c r="I60" t="n">
-        <v>1.031175704507181e-12</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3384,10 +3384,10 @@
         <v>1862000</v>
       </c>
       <c r="L60" t="n">
-        <v>2310000.000003124</v>
+        <v>2310000</v>
       </c>
       <c r="M60" t="n">
-        <v>774000.3000004686</v>
+        <v>774000.3</v>
       </c>
       <c r="N60" t="n">
         <v>25</v>
@@ -3424,7 +3424,7 @@
         <v>3750</v>
       </c>
       <c r="I61" t="n">
-        <v>1.333748043910229e-08</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>1862000</v>
       </c>
       <c r="L61" t="n">
-        <v>2310000.040404829</v>
+        <v>2310000</v>
       </c>
       <c r="M61" t="n">
-        <v>774000.3060607244</v>
+        <v>774000.3</v>
       </c>
       <c r="N61" t="n">
         <v>25</v>
@@ -3473,7 +3473,7 @@
         <v>3750</v>
       </c>
       <c r="I62" t="n">
-        <v>2.016523446649112e-14</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3482,10 +3482,10 @@
         <v>1862000</v>
       </c>
       <c r="L62" t="n">
-        <v>2310000.000000061</v>
+        <v>2310000</v>
       </c>
       <c r="M62" t="n">
-        <v>774000.3000000092</v>
+        <v>774000.3</v>
       </c>
       <c r="N62" t="n">
         <v>25</v>
@@ -3522,7 +3522,7 @@
         <v>3750</v>
       </c>
       <c r="I63" t="n">
-        <v>4.195296836435806e-14</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>1862000</v>
       </c>
       <c r="L63" t="n">
-        <v>2310000.000000127</v>
+        <v>2310000</v>
       </c>
       <c r="M63" t="n">
-        <v>774000.3000000191</v>
+        <v>774000.3</v>
       </c>
       <c r="N63" t="n">
         <v>25</v>
@@ -3571,7 +3571,7 @@
         <v>3750</v>
       </c>
       <c r="I64" t="n">
-        <v>5.577149559328505e-07</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>1862000</v>
       </c>
       <c r="L64" t="n">
-        <v>2310001.689552802</v>
+        <v>2310000</v>
       </c>
       <c r="M64" t="n">
-        <v>774000.5534329202</v>
+        <v>774000.3</v>
       </c>
       <c r="N64" t="n">
         <v>25</v>
@@ -3620,7 +3620,7 @@
         <v>3750</v>
       </c>
       <c r="I65" t="n">
-        <v>2.742732052274734e-07</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>1862000</v>
       </c>
       <c r="L65" t="n">
-        <v>2310000.830888714</v>
+        <v>2310000</v>
       </c>
       <c r="M65" t="n">
-        <v>774000.424633307</v>
+        <v>774000.3</v>
       </c>
       <c r="N65" t="n">
         <v>25</v>
@@ -3669,7 +3669,7 @@
         <v>3750</v>
       </c>
       <c r="I66" t="n">
-        <v>8.990645417898182e-07</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>1862000</v>
       </c>
       <c r="L66" t="n">
-        <v>2310002.723644039</v>
+        <v>2310000</v>
       </c>
       <c r="M66" t="n">
-        <v>774000.7085466059</v>
+        <v>774000.3</v>
       </c>
       <c r="N66" t="n">
         <v>25</v>
@@ -3718,7 +3718,7 @@
         <v>3750</v>
       </c>
       <c r="I67" t="n">
-        <v>2.890905771468493e-06</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3727,10 +3727,10 @@
         <v>1862000</v>
       </c>
       <c r="L67" t="n">
-        <v>2310008.757767554</v>
+        <v>2310000</v>
       </c>
       <c r="M67" t="n">
-        <v>774001.6136651331</v>
+        <v>774000.3</v>
       </c>
       <c r="N67" t="n">
         <v>25</v>
@@ -3767,7 +3767,7 @@
         <v>3750</v>
       </c>
       <c r="I68" t="n">
-        <v>3.996965520791363e-07</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3776,10 +3776,10 @@
         <v>1862000</v>
       </c>
       <c r="L68" t="n">
-        <v>2310001.2108487</v>
+        <v>2310000</v>
       </c>
       <c r="M68" t="n">
-        <v>774000.481627305</v>
+        <v>774000.3</v>
       </c>
       <c r="N68" t="n">
         <v>25</v>
@@ -3816,7 +3816,7 @@
         <v>7350</v>
       </c>
       <c r="I69" t="n">
-        <v>1.289465622219117e-06</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>1862000</v>
       </c>
       <c r="L69" t="n">
-        <v>2310003.906332852</v>
+        <v>2310000</v>
       </c>
       <c r="M69" t="n">
-        <v>781200.8859499278</v>
+        <v>781200.3</v>
       </c>
       <c r="N69" t="n">
         <v>25</v>
@@ -3865,7 +3865,7 @@
         <v>7350</v>
       </c>
       <c r="I70" t="n">
-        <v>3.434288558235233e-09</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3874,10 +3874,10 @@
         <v>1862000</v>
       </c>
       <c r="L70" t="n">
-        <v>2310000.010403902</v>
+        <v>2310000</v>
       </c>
       <c r="M70" t="n">
-        <v>781200.3015605854</v>
+        <v>781200.3</v>
       </c>
       <c r="N70" t="n">
         <v>25</v>
@@ -3914,7 +3914,7 @@
         <v>7350</v>
       </c>
       <c r="I71" t="n">
-        <v>3.084818646982293e-09</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3923,10 +3923,10 @@
         <v>1862000</v>
       </c>
       <c r="L71" t="n">
-        <v>2310000.009345211</v>
+        <v>2310000</v>
       </c>
       <c r="M71" t="n">
-        <v>781200.3014017817</v>
+        <v>781200.3</v>
       </c>
       <c r="N71" t="n">
         <v>25</v>
@@ -3963,7 +3963,7 @@
         <v>7350</v>
       </c>
       <c r="I72" t="n">
-        <v>1.204107229643718e-09</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3972,10 +3972,10 @@
         <v>1862000</v>
       </c>
       <c r="L72" t="n">
-        <v>2310000.003647747</v>
+        <v>2310000</v>
       </c>
       <c r="M72" t="n">
-        <v>781200.300547162</v>
+        <v>781200.3</v>
       </c>
       <c r="N72" t="n">
         <v>25</v>
@@ -4012,7 +4012,7 @@
         <v>7350</v>
       </c>
       <c r="I73" t="n">
-        <v>2.131295166453011e-06</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>1862000</v>
       </c>
       <c r="L73" t="n">
-        <v>2310006.456588049</v>
+        <v>2310000</v>
       </c>
       <c r="M73" t="n">
-        <v>781201.2684882075</v>
+        <v>781200.3</v>
       </c>
       <c r="N73" t="n">
         <v>25</v>
@@ -4061,7 +4061,7 @@
         <v>7350</v>
       </c>
       <c r="I74" t="n">
-        <v>7.833398780762e-09</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>1862000</v>
       </c>
       <c r="L74" t="n">
-        <v>2310000.023730654</v>
+        <v>2310000</v>
       </c>
       <c r="M74" t="n">
-        <v>781200.3035595982</v>
+        <v>781200.3</v>
       </c>
       <c r="N74" t="n">
         <v>25</v>
@@ -4110,7 +4110,7 @@
         <v>7350</v>
       </c>
       <c r="I75" t="n">
-        <v>1.084769738206371e-06</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>1862000</v>
       </c>
       <c r="L75" t="n">
-        <v>2310003.286223062</v>
+        <v>2310000</v>
       </c>
       <c r="M75" t="n">
-        <v>781200.7929334594</v>
+        <v>781200.3</v>
       </c>
       <c r="N75" t="n">
         <v>25</v>
@@ -4159,7 +4159,7 @@
         <v>7350</v>
       </c>
       <c r="I76" t="n">
-        <v>8.573261936293672e-09</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4168,10 +4168,10 @@
         <v>1862000</v>
       </c>
       <c r="L76" t="n">
-        <v>2310000.025972011</v>
+        <v>2310000</v>
       </c>
       <c r="M76" t="n">
-        <v>781200.3038958017</v>
+        <v>781200.3</v>
       </c>
       <c r="N76" t="n">
         <v>25</v>
